--- a/data/trans_orig/FINALC_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651894F1-A83A-4907-B4E7-EBABD4E40945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCC3FA4-DF03-4A84-A6C7-5A3A2C8DD6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81BD8C8D-DE84-4FB0-878B-E27AAE2F1EE0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D643168-4A21-4A31-907A-339D65D05272}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
   <si>
     <t>Población según el nivel de compresión del cuestionario en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -77,394 +77,391 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,03%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>2,01%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>2,44%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>79,7%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -879,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5784747-35FD-4FED-96C2-C0E74E234981}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB272D-9A56-4011-9B52-9BB535A0E1B3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,16 +1033,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>28</v>
@@ -1054,13 +1051,13 @@
         <v>22811</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -1069,13 +1066,13 @@
         <v>48476</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -1084,19 +1081,19 @@
         <v>71287</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>111</v>
@@ -1105,13 +1102,13 @@
         <v>96076</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>283</v>
@@ -1120,13 +1117,13 @@
         <v>169760</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>394</v>
@@ -1135,19 +1132,19 @@
         <v>265836</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>550</v>
@@ -1156,13 +1153,13 @@
         <v>421080</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1047</v>
@@ -1171,13 +1168,13 @@
         <v>614073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>1597</v>
@@ -1186,13 +1183,13 @@
         <v>1035152</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1207,13 +1204,13 @@
         <v>541634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1427</v>
@@ -1222,13 +1219,13 @@
         <v>835953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2118</v>
@@ -1237,18 +1234,18 @@
         <v>1377586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1263,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1278,10 +1275,10 @@
         <v>12</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1293,16 +1290,16 @@
         <v>12</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>17</v>
@@ -1311,13 +1308,13 @@
         <v>15310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1326,13 +1323,13 @@
         <v>22844</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -1341,19 +1338,19 @@
         <v>38154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>395</v>
@@ -1362,28 +1359,28 @@
         <v>390060</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>632</v>
       </c>
       <c r="I11" s="7">
-        <v>395470</v>
+        <v>395471</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
         <v>1027</v>
@@ -1392,19 +1389,19 @@
         <v>785530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>1579</v>
@@ -1413,28 +1410,28 @@
         <v>1755457</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>2251</v>
       </c>
       <c r="I12" s="7">
-        <v>1831206</v>
+        <v>1831207</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>3830</v>
@@ -1443,13 +1440,13 @@
         <v>3586664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,28 +1461,28 @@
         <v>2160827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4912</v>
@@ -1494,18 +1491,18 @@
         <v>4410348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1520,10 +1517,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1532,13 +1529,13 @@
         <v>159</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1547,19 +1544,19 @@
         <v>159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>5</v>
@@ -1568,13 +1565,13 @@
         <v>4241</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -1583,13 +1580,13 @@
         <v>5042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -1598,19 +1595,19 @@
         <v>9284</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>141</v>
@@ -1619,13 +1616,13 @@
         <v>116730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>205</v>
@@ -1634,13 +1631,13 @@
         <v>125846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>346</v>
@@ -1649,19 +1646,19 @@
         <v>242576</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>535</v>
@@ -1670,13 +1667,13 @@
         <v>552068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>791</v>
@@ -1685,13 +1682,13 @@
         <v>582839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>1326</v>
@@ -1700,13 +1697,13 @@
         <v>1134908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1718,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -1736,13 +1733,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -1751,13 +1748,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,13 +1771,13 @@
         <v>1667</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -1789,10 +1786,10 @@
         <v>3802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>113</v>
@@ -1807,7 +1804,7 @@
         <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>115</v>
@@ -1816,7 +1813,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
@@ -1867,7 +1864,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>647</v>
@@ -1906,19 +1903,19 @@
         <v>1293943</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>2664</v>
@@ -1927,13 +1924,13 @@
         <v>2728605</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>4089</v>
@@ -1942,13 +1939,13 @@
         <v>3028119</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>6753</v>
@@ -1957,13 +1954,13 @@
         <v>5756724</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1975,13 @@
         <v>3375500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5352</v>
@@ -1993,13 +1990,13 @@
         <v>3799360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8715</v>
@@ -2008,18 +2005,18 @@
         <v>7174860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALC_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CCC3FA4-DF03-4A84-A6C7-5A3A2C8DD6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C8969C-F6D2-46E1-9FE1-12CD5660DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D643168-4A21-4A31-907A-339D65D05272}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B87D2605-D0C6-4D95-9684-BDF7BBDDAC98}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FB272D-9A56-4011-9B52-9BB535A0E1B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFFF070-4FC8-4A29-A551-431BCD68BB4C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
